--- a/Result_files/V3_Bids_2020-07-27_2020-08-02.xlsx
+++ b/Result_files/V3_Bids_2020-07-27_2020-08-02.xlsx
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.053</v>
+        <v>25.04200000000002</v>
       </c>
       <c r="H2" t="n">
         <v>47.8</v>
@@ -560,7 +560,7 @@
         <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>-1023.317078777382</v>
+        <v>-1023.317078777383</v>
       </c>
       <c r="K2" t="n">
         <v>24.2</v>
@@ -598,7 +598,7 @@
         <v>18.36</v>
       </c>
       <c r="D3" t="n">
-        <v>47.8</v>
+        <v>38.5</v>
       </c>
       <c r="E3" t="n">
         <v>0.26</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>367.8199788481868</v>
+        <v>2086.007970167989</v>
       </c>
       <c r="K3" t="n">
         <v>19.77</v>
@@ -654,7 +654,7 @@
         <v>18.36</v>
       </c>
       <c r="D4" t="n">
-        <v>46.8</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="n">
         <v>0.26</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2339.324780588548</v>
+        <v>2384.512543477686</v>
       </c>
       <c r="K4" t="n">
         <v>16.879999</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2348.720173656653</v>
+        <v>2348.830980163499</v>
       </c>
       <c r="K5" t="n">
         <v>17.4</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.92</v>
+        <v>36.4</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2141.010835487234</v>
+        <v>2397.964973328131</v>
       </c>
       <c r="K6" t="n">
         <v>17.6</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.92</v>
+        <v>36.4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0.26</v>
       </c>
       <c r="F7" t="n">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>26.244</v>
       </c>
       <c r="H7" t="n">
-        <v>19.6</v>
+        <v>49.8</v>
       </c>
       <c r="I7" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-1193.52671524</v>
+        <v>-1399.008157582373</v>
       </c>
       <c r="K7" t="n">
         <v>19.879999</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.92</v>
+        <v>36.4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>49.8</v>
+        <v>15.6</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.93100000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="I8" t="n">
-        <v>29.112</v>
+        <v>29.02199999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>-1048.129875371712</v>
+        <v>-1317.79641456</v>
       </c>
       <c r="K8" t="n">
         <v>26.52</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.92</v>
+        <v>36.4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0.27</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>30.2</v>
       </c>
       <c r="G9" t="n">
         <v>20.93099999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="I9" t="n">
-        <v>20.91999999999999</v>
+        <v>20.483</v>
       </c>
       <c r="J9" t="n">
-        <v>-2994.996707769161</v>
+        <v>-1072.871510177206</v>
       </c>
       <c r="K9" t="n">
         <v>35.540001</v>
@@ -996,19 +996,19 @@
         <v>0.27</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>42.3</v>
       </c>
       <c r="G10" t="n">
         <v>20.93099999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>20.91999999999999</v>
+        <v>20.483</v>
       </c>
       <c r="J10" t="n">
-        <v>-3808.574535820435</v>
+        <v>-1076.21474453</v>
       </c>
       <c r="K10" t="n">
         <v>40.450001</v>
@@ -1055,7 +1055,7 @@
         <v>47.8</v>
       </c>
       <c r="G11" t="n">
-        <v>22.147</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-3368.301933895942</v>
+        <v>-1000.338610277733</v>
       </c>
       <c r="K11" t="n">
         <v>38.810001</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-2447.43096362862</v>
+        <v>-2177.687847131337</v>
       </c>
       <c r="K12" t="n">
         <v>35.400002</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-2613.181947109989</v>
+        <v>-2630.907509808635</v>
       </c>
       <c r="K13" t="n">
         <v>34.29999</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>29.2</v>
+        <v>46.84</v>
       </c>
       <c r="D14" t="n">
         <v>49.8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-892.2151175412198</v>
+        <v>-2077.337859713206</v>
       </c>
       <c r="K14" t="n">
         <v>29.35</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>29.2</v>
+        <v>46.84</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>17.232</v>
       </c>
       <c r="J15" t="n">
-        <v>-1317.085895201587</v>
+        <v>-1490.481697163858</v>
       </c>
       <c r="K15" t="n">
         <v>22.629999</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>29.2</v>
+        <v>46.84</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>17.232</v>
       </c>
       <c r="J16" t="n">
-        <v>-2191.217839476145</v>
+        <v>-984.5513958848755</v>
       </c>
       <c r="K16" t="n">
         <v>21.98</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>29.2</v>
+        <v>46.84</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>17.232</v>
       </c>
       <c r="J17" t="n">
-        <v>-1473.792317651913</v>
+        <v>-485.6288867664713</v>
       </c>
       <c r="K17" t="n">
         <v>21.2</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.92</v>
+        <v>48.92</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>17.636</v>
       </c>
       <c r="J18" t="n">
-        <v>-652.7590442476931</v>
+        <v>-844.4610461938241</v>
       </c>
       <c r="K18" t="n">
         <v>19.85</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>27.92</v>
+        <v>48.92</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>17.636</v>
       </c>
       <c r="J19" t="n">
-        <v>-41.12477027023716</v>
+        <v>506.2269043647194</v>
       </c>
       <c r="K19" t="n">
         <v>22.84</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>27.92</v>
+        <v>48.92</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0.27</v>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>18.226</v>
       </c>
       <c r="H20" t="n">
-        <v>45.6</v>
+        <v>42.7</v>
       </c>
       <c r="I20" t="n">
         <v>17.63599999999991</v>
       </c>
       <c r="J20" t="n">
-        <v>-891.3360416946782</v>
+        <v>-896.6436223100001</v>
       </c>
       <c r="K20" t="n">
         <v>32.959999</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.92</v>
+        <v>48.92</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.723</v>
+        <v>18.716</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>17.22699999999992</v>
       </c>
       <c r="J21" t="n">
-        <v>-597.623595300222</v>
+        <v>-446.2679184268382</v>
       </c>
       <c r="K21" t="n">
         <v>34.950001</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>27.56</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.723</v>
+        <v>18.716</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1680,7 +1680,7 @@
         <v>17.22699999999992</v>
       </c>
       <c r="J22" t="n">
-        <v>-429.4575862561167</v>
+        <v>-429.4575862561193</v>
       </c>
       <c r="K22" t="n">
         <v>34.900002</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>27.56</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>27.56</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>19.625</v>
+        <v>19.618</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1792,7 +1792,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J24" t="n">
-        <v>-492.3567286823395</v>
+        <v>-492.3567286823393</v>
       </c>
       <c r="K24" t="n">
         <v>33.970001</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>27.56</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>18.41</v>
       </c>
       <c r="J25" t="n">
-        <v>1497.550272322741</v>
+        <v>1500.233492335376</v>
       </c>
       <c r="K25" t="n">
         <v>17.9</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.05300000000001</v>
+        <v>25.053</v>
       </c>
       <c r="H26" t="n">
         <v>47.8</v>
@@ -1904,7 +1904,7 @@
         <v>19.68399999999991</v>
       </c>
       <c r="J26" t="n">
-        <v>-966.5299397314192</v>
+        <v>-966.5299397314196</v>
       </c>
       <c r="K26" t="n">
         <v>34</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>384.4478407745766</v>
+        <v>384.4478407745758</v>
       </c>
       <c r="K27" t="n">
         <v>28.360001</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>365.5539563293549</v>
+        <v>2486.396283787146</v>
       </c>
       <c r="K28" t="n">
         <v>27</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2349.091063015252</v>
+        <v>2349.091063015253</v>
       </c>
       <c r="K29" t="n">
         <v>25.4</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2305.774718062928</v>
+        <v>2335.934548465375</v>
       </c>
       <c r="K30" t="n">
         <v>25.2</v>
@@ -2184,7 +2184,7 @@
         <v>29.536</v>
       </c>
       <c r="J31" t="n">
-        <v>1136.802780120996</v>
+        <v>1122.008592006784</v>
       </c>
       <c r="K31" t="n">
         <v>25.59999</v>
@@ -2228,19 +2228,19 @@
         <v>0.27</v>
       </c>
       <c r="F32" t="n">
-        <v>13.4</v>
+        <v>32.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>25.93799999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>36.4</v>
+        <v>17.6</v>
       </c>
       <c r="I32" t="n">
         <v>29.536</v>
       </c>
       <c r="J32" t="n">
-        <v>-1048.12716368</v>
+        <v>-1034.876307039999</v>
       </c>
       <c r="K32" t="n">
         <v>24.940001</v>
@@ -2296,7 +2296,7 @@
         <v>20.483</v>
       </c>
       <c r="J33" t="n">
-        <v>-1295.188410141916</v>
+        <v>-1444.224626566921</v>
       </c>
       <c r="K33" t="n">
         <v>25.4</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.04</v>
+        <v>25.77</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>20.483</v>
       </c>
       <c r="J34" t="n">
-        <v>-3709.59751828403</v>
+        <v>-1888.836308663698</v>
       </c>
       <c r="K34" t="n">
         <v>24.91</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>29.04</v>
+        <v>25.77</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>49.8</v>
       </c>
       <c r="G35" t="n">
-        <v>21.938</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>19.818</v>
       </c>
       <c r="J35" t="n">
-        <v>-1587.818670310049</v>
+        <v>-1387.111267489666</v>
       </c>
       <c r="K35" t="n">
         <v>24.93</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>29.04</v>
+        <v>25.77</v>
       </c>
       <c r="D36" t="n">
         <v>49.8</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-3242.731749333162</v>
+        <v>-2948.366894714622</v>
       </c>
       <c r="K36" t="n">
         <v>24.719999</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29.04</v>
+        <v>25.77</v>
       </c>
       <c r="D37" t="n">
         <v>49.8</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-3612.208180218245</v>
+        <v>-2419.19070074775</v>
       </c>
       <c r="K37" t="n">
         <v>23.49</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-3144.344252541943</v>
+        <v>-2953.31574802138</v>
       </c>
       <c r="K38" t="n">
         <v>23.190001</v>
@@ -2632,7 +2632,7 @@
         <v>17.636</v>
       </c>
       <c r="J39" t="n">
-        <v>-3736.273886599513</v>
+        <v>-2585.775986790376</v>
       </c>
       <c r="K39" t="n">
         <v>21.129999</v>
@@ -2688,7 +2688,7 @@
         <v>17.636</v>
       </c>
       <c r="J40" t="n">
-        <v>-1961.285324697897</v>
+        <v>-1780.983467842055</v>
       </c>
       <c r="K40" t="n">
         <v>19.459999</v>
@@ -2744,7 +2744,7 @@
         <v>17.636</v>
       </c>
       <c r="J41" t="n">
-        <v>-1594.922073833658</v>
+        <v>-954.0692106445478</v>
       </c>
       <c r="K41" t="n">
         <v>20.889999</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.636</v>
+        <v>17.63599999999991</v>
       </c>
       <c r="J42" t="n">
-        <v>-2147.07285661822</v>
+        <v>-326.4245107954071</v>
       </c>
       <c r="K42" t="n">
         <v>24.280001</v>
@@ -2844,19 +2844,19 @@
         <v>0.27</v>
       </c>
       <c r="F43" t="n">
-        <v>49.8</v>
+        <v>20.7</v>
       </c>
       <c r="G43" t="n">
         <v>18.57999999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="I43" t="n">
-        <v>19.636</v>
+        <v>17.63599999999991</v>
       </c>
       <c r="J43" t="n">
-        <v>-1714.326396242099</v>
+        <v>-934.0340681699997</v>
       </c>
       <c r="K43" t="n">
         <v>26</v>
@@ -2900,19 +2900,19 @@
         <v>0.27</v>
       </c>
       <c r="F44" t="n">
-        <v>31.9</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>17.94900000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>17.9</v>
+        <v>48.8</v>
       </c>
       <c r="I44" t="n">
         <v>17.63599999999991</v>
       </c>
       <c r="J44" t="n">
-        <v>-940.0608882799999</v>
+        <v>-877.0137857106995</v>
       </c>
       <c r="K44" t="n">
         <v>29.799999</v>
@@ -2956,19 +2956,19 @@
         <v>0.27</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>18.02600000000001</v>
+        <v>18.723</v>
       </c>
       <c r="H45" t="n">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
       <c r="I45" t="n">
         <v>15.36399999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>-844.5023383412603</v>
+        <v>-409.0568759088946</v>
       </c>
       <c r="K45" t="n">
         <v>36.150002</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>15.36399999999998</v>
       </c>
       <c r="J46" t="n">
-        <v>-404.6588854046952</v>
+        <v>-389.3899199375704</v>
       </c>
       <c r="K46" t="n">
         <v>37.52</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>16.63599999999991</v>
       </c>
       <c r="J47" t="n">
-        <v>-467.290367105501</v>
+        <v>-467.2903671054985</v>
       </c>
       <c r="K47" t="n">
         <v>37.950001</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>19.625</v>
+        <v>19.35700000000001</v>
       </c>
       <c r="H49" t="n">
         <v>49.8</v>
@@ -3248,7 +3248,7 @@
         <v>29</v>
       </c>
       <c r="J50" t="n">
-        <v>-1011.098420718765</v>
+        <v>-1011.098420718766</v>
       </c>
       <c r="K50" t="n">
         <v>24.2</v>
@@ -3286,10 +3286,10 @@
         <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="E51" t="n">
-        <v>0.53</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>373.2756256438746</v>
+        <v>1752.926634041135</v>
       </c>
       <c r="K51" t="n">
         <v>19.77</v>
@@ -3342,7 +3342,7 @@
         <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>34.9</v>
+        <v>47.8</v>
       </c>
       <c r="E52" t="n">
         <v>0.2599999999999909</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1839.431082661693</v>
+        <v>2391.753424048895</v>
       </c>
       <c r="K52" t="n">
         <v>16.879999</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2356.316418312307</v>
+        <v>2356.960704490257</v>
       </c>
       <c r="K53" t="n">
         <v>17.4</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>27.32</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2310.630697286965</v>
+        <v>2413.128286533541</v>
       </c>
       <c r="K54" t="n">
         <v>17.6</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>27.32</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>0.53</v>
       </c>
       <c r="F55" t="n">
-        <v>5.100000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="G55" t="n">
         <v>26.23599999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>29.02199999999999</v>
+        <v>29.112</v>
       </c>
       <c r="J55" t="n">
-        <v>-1442.31364101</v>
+        <v>1016.631221392402</v>
       </c>
       <c r="K55" t="n">
         <v>19.879999</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>27.32</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         <v>0.53</v>
       </c>
       <c r="F56" t="n">
-        <v>46.5</v>
+        <v>5.5</v>
       </c>
       <c r="G56" t="n">
         <v>25.93000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>44.3</v>
       </c>
       <c r="I56" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>-1345.043761080001</v>
+        <v>-1440.24489188</v>
       </c>
       <c r="K56" t="n">
         <v>26.52</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>27.32</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>20.989</v>
+        <v>20.98900000000002</v>
       </c>
       <c r="J57" t="n">
-        <v>-1827.712558471986</v>
+        <v>-1168.167204015643</v>
       </c>
       <c r="K57" t="n">
         <v>35.540001</v>
@@ -3693,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>20.989</v>
+        <v>20.98900000000002</v>
       </c>
       <c r="J58" t="n">
-        <v>-3894.559737105652</v>
+        <v>-2092.757317713226</v>
       </c>
       <c r="K58" t="n">
         <v>40.450001</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-2697.160611352144</v>
+        <v>-1617.725346827364</v>
       </c>
       <c r="K59" t="n">
         <v>38.810001</v>
@@ -3790,7 +3790,7 @@
         <v>17.07</v>
       </c>
       <c r="D60" t="n">
-        <v>47.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>0.2599999999999909</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-2172.882750696296</v>
+        <v>-36.78873460000034</v>
       </c>
       <c r="K60" t="n">
         <v>35.400002</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-2256.798325240903</v>
+        <v>-1600.225204592388</v>
       </c>
       <c r="K61" t="n">
         <v>34.29999</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>31.11</v>
+        <v>35.47</v>
       </c>
       <c r="D62" t="n">
         <v>49.8</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-1844.188537911882</v>
+        <v>-1151.529709504662</v>
       </c>
       <c r="K62" t="n">
         <v>29.35</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>31.11</v>
+        <v>35.47</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>17.232</v>
       </c>
       <c r="J63" t="n">
-        <v>-1232.203659235175</v>
+        <v>-742.8082514970642</v>
       </c>
       <c r="K63" t="n">
         <v>22.629999</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31.11</v>
+        <v>35.47</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>17.232</v>
       </c>
       <c r="J64" t="n">
-        <v>-1200.499216685141</v>
+        <v>-981.767879657238</v>
       </c>
       <c r="K64" t="n">
         <v>21.98</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>31.11</v>
+        <v>35.47</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>17.232</v>
       </c>
       <c r="J65" t="n">
-        <v>-663.0107459940496</v>
+        <v>-1905.623401621537</v>
       </c>
       <c r="K65" t="n">
         <v>21.2</v>
@@ -4144,7 +4144,7 @@
         <v>17.232</v>
       </c>
       <c r="J66" t="n">
-        <v>-663.5811297268657</v>
+        <v>-1071.408925976442</v>
       </c>
       <c r="K66" t="n">
         <v>19.85</v>
@@ -4188,19 +4188,19 @@
         <v>0.53</v>
       </c>
       <c r="F67" t="n">
-        <v>21.1</v>
+        <v>31.1</v>
       </c>
       <c r="G67" t="n">
         <v>18.57299999999992</v>
       </c>
       <c r="H67" t="n">
-        <v>28.7</v>
+        <v>18.7</v>
       </c>
       <c r="I67" t="n">
         <v>17.21699999999993</v>
       </c>
       <c r="J67" t="n">
-        <v>-887.1946009832209</v>
+        <v>-70.40872925418684</v>
       </c>
       <c r="K67" t="n">
         <v>22.84</v>
@@ -4244,19 +4244,19 @@
         <v>0.53</v>
       </c>
       <c r="F68" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="G68" t="n">
         <v>18.71600000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>46</v>
+        <v>47.6</v>
       </c>
       <c r="I68" t="n">
         <v>17.63599999999991</v>
       </c>
       <c r="J68" t="n">
-        <v>-886.8618008800001</v>
+        <v>-885.2755839199998</v>
       </c>
       <c r="K68" t="n">
         <v>32.959999</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>18.724</v>
+        <v>18.723</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>17.26299999999998</v>
       </c>
       <c r="J69" t="n">
-        <v>-610.0688221862792</v>
+        <v>-414.4994974248879</v>
       </c>
       <c r="K69" t="n">
         <v>34.950001</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>18.08</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>18.724</v>
+        <v>18.723</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>17.26299999999998</v>
       </c>
       <c r="J70" t="n">
-        <v>-422.3695316816392</v>
+        <v>-417.8698641142575</v>
       </c>
       <c r="K70" t="n">
         <v>34.900002</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>18.08</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J71" t="n">
-        <v>-476.0682797287534</v>
+        <v>-476.0682797287501</v>
       </c>
       <c r="K71" t="n">
         <v>34.630001</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>18.08</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>18.08</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="J74" t="n">
-        <v>-1021.194897966345</v>
+        <v>-1017.603521125469</v>
       </c>
       <c r="K74" t="n">
         <v>32.619999</v>
@@ -4630,7 +4630,7 @@
         <v>23.2</v>
       </c>
       <c r="D75" t="n">
-        <v>36.6</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
         <v>0.2599999999999909</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2019.73267982237</v>
+        <v>2490.261721468543</v>
       </c>
       <c r="K75" t="n">
         <v>28.299999</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2465.115101560356</v>
+        <v>2486.180379663362</v>
       </c>
       <c r="K78" t="n">
         <v>25.969999</v>
@@ -4860,19 +4860,19 @@
         <v>0.37</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G79" t="n">
-        <v>26.237</v>
+        <v>26.2359999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>29.02199999999999</v>
+        <v>29.112</v>
       </c>
       <c r="J79" t="n">
-        <v>-1240.749610017891</v>
+        <v>1208.108147651983</v>
       </c>
       <c r="K79" t="n">
         <v>26.66</v>
@@ -4916,19 +4916,19 @@
         <v>0.27</v>
       </c>
       <c r="F80" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>25.92999999999998</v>
+        <v>29.217</v>
       </c>
       <c r="H80" t="n">
-        <v>42.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I80" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>-1434.248472080001</v>
+        <v>-1153.660690193447</v>
       </c>
       <c r="K80" t="n">
         <v>33.279999</v>
@@ -4972,19 +4972,19 @@
         <v>0.27</v>
       </c>
       <c r="F81" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>20.92999999999998</v>
+        <v>20.931</v>
       </c>
       <c r="H81" t="n">
-        <v>33.7</v>
+        <v>49.8</v>
       </c>
       <c r="I81" t="n">
         <v>20.483</v>
       </c>
       <c r="J81" t="n">
-        <v>-1052.47860542</v>
+        <v>-903.5610213909688</v>
       </c>
       <c r="K81" t="n">
         <v>38.740002</v>
@@ -5028,19 +5028,19 @@
         <v>0.27</v>
       </c>
       <c r="F82" t="n">
-        <v>30.5</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>20.92999999999998</v>
       </c>
       <c r="H82" t="n">
-        <v>17.3</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
         <v>20.483</v>
       </c>
       <c r="J82" t="n">
-        <v>-1050.133793195266</v>
+        <v>-1038.136339314023</v>
       </c>
       <c r="K82" t="n">
         <v>37.7</v>
@@ -5078,7 +5078,7 @@
         <v>17.07</v>
       </c>
       <c r="D83" t="n">
-        <v>33.7</v>
+        <v>45.6</v>
       </c>
       <c r="E83" t="n">
         <v>0.26</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-39.87424690000002</v>
+        <v>-43.23919512193152</v>
       </c>
       <c r="K83" t="n">
         <v>35.549999</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-720.5381540261573</v>
+        <v>-83.81207779251336</v>
       </c>
       <c r="K84" t="n">
         <v>30.299999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-2034.981262452299</v>
+        <v>-161.8321414844075</v>
       </c>
       <c r="K85" t="n">
         <v>26.65</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>34.08</v>
+        <v>30.11</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-1258.526136689964</v>
+        <v>748.3923561454072</v>
       </c>
       <c r="K86" t="n">
         <v>21.540001</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>34.08</v>
+        <v>30.11</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>17.232</v>
       </c>
       <c r="J87" t="n">
-        <v>-2103.414179227671</v>
+        <v>-673.8642547804476</v>
       </c>
       <c r="K87" t="n">
         <v>21</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>34.08</v>
+        <v>30.11</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>17.232</v>
       </c>
       <c r="J88" t="n">
-        <v>-1913.145236106836</v>
+        <v>-957.6945657995475</v>
       </c>
       <c r="K88" t="n">
         <v>19.23</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>34.08</v>
+        <v>30.11</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5429,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>17.232</v>
+        <v>17.636</v>
       </c>
       <c r="J89" t="n">
-        <v>-1110.52626477093</v>
+        <v>249.7177018227469</v>
       </c>
       <c r="K89" t="n">
         <v>22.77</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>27.44</v>
+        <v>25.12</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>17.636</v>
       </c>
       <c r="J90" t="n">
-        <v>-1286.524217778762</v>
+        <v>907.4816959832194</v>
       </c>
       <c r="K90" t="n">
         <v>26.66</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>27.44</v>
+        <v>25.12</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -5532,19 +5532,19 @@
         <v>0.27</v>
       </c>
       <c r="F91" t="n">
-        <v>36.3</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>18.57300000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>13.5</v>
+        <v>48.8</v>
       </c>
       <c r="I91" t="n">
         <v>17.23199999999991</v>
       </c>
       <c r="J91" t="n">
-        <v>-911.1546061825354</v>
+        <v>-864.3865186147411</v>
       </c>
       <c r="K91" t="n">
         <v>37.900002</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>27.44</v>
+        <v>25.12</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5588,19 +5588,19 @@
         <v>0.27</v>
       </c>
       <c r="F92" t="n">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>17.94900000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>26.9</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>17.63599999999991</v>
       </c>
       <c r="J92" t="n">
-        <v>-900.5710983523087</v>
+        <v>-575.6127787739608</v>
       </c>
       <c r="K92" t="n">
         <v>42.189999</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>27.44</v>
+        <v>25.12</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5644,19 +5644,19 @@
         <v>0.27</v>
       </c>
       <c r="F93" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>18.02600000000001</v>
+        <v>18.716</v>
       </c>
       <c r="H93" t="n">
-        <v>46</v>
+        <v>49.8</v>
       </c>
       <c r="I93" t="n">
         <v>17.22699999999992</v>
       </c>
       <c r="J93" t="n">
-        <v>-864.437681755492</v>
+        <v>-395.5757933126336</v>
       </c>
       <c r="K93" t="n">
         <v>44.639999</v>
@@ -5712,7 +5712,7 @@
         <v>17.22699999999992</v>
       </c>
       <c r="J94" t="n">
-        <v>-438.5040301177991</v>
+        <v>-400.1188409253357</v>
       </c>
       <c r="K94" t="n">
         <v>42.220001</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>19.618</v>
+        <v>19.61800000000001</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5768,7 +5768,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J95" t="n">
-        <v>-462.6738664576203</v>
+        <v>-462.6738664576196</v>
       </c>
       <c r="K95" t="n">
         <v>41.959999</v>
@@ -5824,7 +5824,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J96" t="n">
-        <v>-459.7840466139222</v>
+        <v>-459.7840466139218</v>
       </c>
       <c r="K96" t="n">
         <v>41.439999</v>
@@ -5880,7 +5880,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J97" t="n">
-        <v>-485.9161956286837</v>
+        <v>-485.9161956286861</v>
       </c>
       <c r="K97" t="n">
         <v>35.900002</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>25.041</v>
+        <v>20.58299999999991</v>
       </c>
       <c r="H98" t="n">
         <v>47.8</v>
@@ -5936,7 +5936,7 @@
         <v>29</v>
       </c>
       <c r="J98" t="n">
-        <v>-1049.51655658867</v>
+        <v>-1046.09464086367</v>
       </c>
       <c r="K98" t="n">
         <v>34.57</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2142.548831526916</v>
+        <v>2142.548831526917</v>
       </c>
       <c r="K101" t="n">
         <v>26.629999</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2181.958375808159</v>
+        <v>2204.78527892346</v>
       </c>
       <c r="K102" t="n">
         <v>26</v>
@@ -6210,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="I103" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>-1445.17823268515</v>
+        <v>-1180.163808899122</v>
       </c>
       <c r="K103" t="n">
         <v>25.75</v>
@@ -6260,19 +6260,19 @@
         <v>0.53</v>
       </c>
       <c r="F104" t="n">
-        <v>8.200000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>25.93</v>
       </c>
       <c r="H104" t="n">
-        <v>41.6</v>
+        <v>46.1</v>
       </c>
       <c r="I104" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J104" t="n">
-        <v>-1380.136134440001</v>
+        <v>-1419.583486252071</v>
       </c>
       <c r="K104" t="n">
         <v>25.799999</v>
@@ -6316,19 +6316,19 @@
         <v>0.53</v>
       </c>
       <c r="F105" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="G105" t="n">
         <v>20.93000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="I105" t="n">
         <v>20.483</v>
       </c>
       <c r="J105" t="n">
-        <v>-1043.44923756</v>
+        <v>-1043.374520369999</v>
       </c>
       <c r="K105" t="n">
         <v>26.5</v>
@@ -6372,19 +6372,19 @@
         <v>0.53</v>
       </c>
       <c r="F106" t="n">
-        <v>42.8</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
         <v>20.93000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
         <v>20.483</v>
       </c>
       <c r="J106" t="n">
-        <v>-1032.015222063233</v>
+        <v>-1034.70231598</v>
       </c>
       <c r="K106" t="n">
         <v>26.870001</v>
@@ -6431,7 +6431,7 @@
         <v>47.8</v>
       </c>
       <c r="G107" t="n">
-        <v>21.401</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-1204.542186525402</v>
+        <v>-181.1221220273827</v>
       </c>
       <c r="K107" t="n">
         <v>26.73</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-2202.383088888118</v>
+        <v>-663.8549691085627</v>
       </c>
       <c r="K108" t="n">
         <v>24.35</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-4714.718702306321</v>
+        <v>-730.6581427315298</v>
       </c>
       <c r="K109" t="n">
         <v>21.42</v>
@@ -6584,13 +6584,13 @@
         <v>44043.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>28.24</v>
       </c>
       <c r="D110" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E110" t="n">
         <v>0.2599999999999909</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-4164.912804471696</v>
+        <v>817.8121937673501</v>
       </c>
       <c r="K110" t="n">
         <v>16.299999</v>
@@ -6640,7 +6640,7 @@
         <v>44043.54166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>28.24</v>
@@ -6652,7 +6652,7 @@
         <v>0.53</v>
       </c>
       <c r="F111" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>17.232</v>
       </c>
       <c r="J111" t="n">
-        <v>-3807.605072147974</v>
+        <v>456.1233237806517</v>
       </c>
       <c r="K111" t="n">
         <v>16.299999</v>
@@ -6696,7 +6696,7 @@
         <v>44043.58333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>28.24</v>
@@ -6708,7 +6708,7 @@
         <v>0.53</v>
       </c>
       <c r="F112" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>17.232</v>
       </c>
       <c r="J112" t="n">
-        <v>-3323.47325622693</v>
+        <v>195.6568112228713</v>
       </c>
       <c r="K112" t="n">
         <v>16.700001</v>
@@ -6752,7 +6752,7 @@
         <v>44043.625</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>28.24</v>
@@ -6764,7 +6764,7 @@
         <v>0.53</v>
       </c>
       <c r="F113" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>17.232</v>
       </c>
       <c r="J113" t="n">
-        <v>-2801.462401872876</v>
+        <v>-38.56333088290349</v>
       </c>
       <c r="K113" t="n">
         <v>21</v>
@@ -6832,7 +6832,7 @@
         <v>17.232</v>
       </c>
       <c r="J114" t="n">
-        <v>-2239.376606569711</v>
+        <v>763.0089722759049</v>
       </c>
       <c r="K114" t="n">
         <v>22.790001</v>
@@ -6885,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>17.232</v>
+        <v>17.636</v>
       </c>
       <c r="J115" t="n">
-        <v>-1580.254106968746</v>
+        <v>1017.981645265561</v>
       </c>
       <c r="K115" t="n">
         <v>28</v>
@@ -6932,19 +6932,19 @@
         <v>0.53</v>
       </c>
       <c r="F116" t="n">
-        <v>32.9</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>18.71600000000001</v>
+        <v>18.733</v>
       </c>
       <c r="H116" t="n">
-        <v>16.9</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>17.63599999999991</v>
       </c>
       <c r="J116" t="n">
-        <v>-941.1208139128919</v>
+        <v>-671.9138104363558</v>
       </c>
       <c r="K116" t="n">
         <v>34.650002</v>
@@ -6988,19 +6988,19 @@
         <v>0.27</v>
       </c>
       <c r="F117" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>18.71600000000001</v>
+        <v>18.733</v>
       </c>
       <c r="H117" t="n">
-        <v>46.90000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I117" t="n">
         <v>17.22699999999992</v>
       </c>
       <c r="J117" t="n">
-        <v>-869.2638332698116</v>
+        <v>-439.1833369839152</v>
       </c>
       <c r="K117" t="n">
         <v>37.950001</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>17.22699999999992</v>
       </c>
       <c r="J118" t="n">
-        <v>-461.3505127380963</v>
+        <v>-438.4413787977059</v>
       </c>
       <c r="K118" t="n">
         <v>38.41</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J119" t="n">
-        <v>-497.0216362633096</v>
+        <v>-497.0216362633105</v>
       </c>
       <c r="K119" t="n">
         <v>38</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>18.39299999999997</v>
       </c>
       <c r="J120" t="n">
-        <v>-497.4988806235676</v>
+        <v>-497.4988806235668</v>
       </c>
       <c r="K120" t="n">
         <v>39.450001</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -7318,10 +7318,10 @@
         <v>16.67</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E123" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>392.7782923082921</v>
+        <v>2670.28265116864</v>
       </c>
       <c r="K123" t="n">
         <v>28.360001</v>
@@ -7374,10 +7374,10 @@
         <v>16.67</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E124" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>375.0225058663619</v>
+        <v>2556.229558899646</v>
       </c>
       <c r="K124" t="n">
         <v>27</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2423.448516711846</v>
+        <v>2424.872898644682</v>
       </c>
       <c r="K125" t="n">
         <v>25.4</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>48.95</v>
+        <v>25</v>
       </c>
       <c r="D126" t="n">
         <v>49.8</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2291.36265537024</v>
+        <v>2432.605736654064</v>
       </c>
       <c r="K126" t="n">
         <v>25.2</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>48.95</v>
+        <v>25</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -7548,19 +7548,19 @@
         <v>0.39</v>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>29.8</v>
+        <v>49.8</v>
       </c>
       <c r="I127" t="n">
         <v>29.02199999999999</v>
       </c>
       <c r="J127" t="n">
-        <v>-1295.630667559999</v>
+        <v>-1290.464080000805</v>
       </c>
       <c r="K127" t="n">
         <v>25.59999</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>48.95</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -7604,19 +7604,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F128" t="n">
-        <v>49.8</v>
+        <v>2.8</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>25.93000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I128" t="n">
-        <v>29.536</v>
+        <v>29.02199999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>-1269.735264290787</v>
+        <v>-1464.473887298631</v>
       </c>
       <c r="K128" t="n">
         <v>24.940001</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>48.95</v>
+        <v>25</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -7660,19 +7660,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F129" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>20.93000000000001</v>
+        <v>20.938</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I129" t="n">
-        <v>20.483</v>
+        <v>20</v>
       </c>
       <c r="J129" t="n">
-        <v>-2690.989726108241</v>
+        <v>-988.356983791589</v>
       </c>
       <c r="K129" t="n">
         <v>25.4</v>
@@ -7704,10 +7704,10 @@
         <v>44044.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>56.94</v>
+        <v>17.72</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F130" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>20.93000000000001</v>
+        <v>22.147</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
-        <v>20.483</v>
+        <v>20</v>
       </c>
       <c r="J130" t="n">
-        <v>-3768.542723120412</v>
+        <v>-938.2740757403412</v>
       </c>
       <c r="K130" t="n">
         <v>24.91</v>
@@ -7760,10 +7760,10 @@
         <v>44044.375</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>56.94</v>
+        <v>17.72</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -7772,10 +7772,10 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G131" t="n">
-        <v>22.147</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-3884.89260229235</v>
+        <v>-1007.163150363959</v>
       </c>
       <c r="K131" t="n">
         <v>24.93</v>
@@ -7816,13 +7816,13 @@
         <v>44044.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>56.94</v>
+        <v>17.72</v>
       </c>
       <c r="D132" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.2600000000002369</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-4013.710591946247</v>
+        <v>-1941.10047588136</v>
       </c>
       <c r="K132" t="n">
         <v>24.719999</v>
@@ -7872,13 +7872,13 @@
         <v>44044.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>56.94</v>
+        <v>17.72</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E133" t="n">
         <v>0.2600000000002369</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-3970.207863267611</v>
+        <v>88.31456631983117</v>
       </c>
       <c r="K133" t="n">
         <v>23.49</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>31.11</v>
+        <v>22</v>
       </c>
       <c r="D134" t="n">
         <v>49.8</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-3662.263791253754</v>
+        <v>-1208.181179457919</v>
       </c>
       <c r="K134" t="n">
         <v>23.190001</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>31.11</v>
+        <v>22</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>17.217</v>
+        <v>17.21700000000001</v>
       </c>
       <c r="J135" t="n">
-        <v>-3504.487705910262</v>
+        <v>-2084.862528384667</v>
       </c>
       <c r="K135" t="n">
         <v>21.129999</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>31.11</v>
+        <v>22</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>17.217</v>
+        <v>17.21700000000001</v>
       </c>
       <c r="J136" t="n">
-        <v>-3278.571378017732</v>
+        <v>502.596742225895</v>
       </c>
       <c r="K136" t="n">
         <v>19.459999</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>31.11</v>
+        <v>22</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8111,16 +8111,16 @@
         <v>49.8</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>18.573</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>17.217</v>
+        <v>17.21700000000001</v>
       </c>
       <c r="J137" t="n">
-        <v>-2880.94796946817</v>
+        <v>-830.6890815774899</v>
       </c>
       <c r="K137" t="n">
         <v>20.889999</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>59.19</v>
+        <v>20.13</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>17.286</v>
+        <v>17.636</v>
       </c>
       <c r="J138" t="n">
-        <v>-1927.161617740323</v>
+        <v>338.4479421215627</v>
       </c>
       <c r="K138" t="n">
         <v>24.280001</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>59.19</v>
+        <v>20.13</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8229,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>17.286</v>
+        <v>17.636</v>
       </c>
       <c r="J139" t="n">
-        <v>-1594.601217972606</v>
+        <v>212.761711511559</v>
       </c>
       <c r="K139" t="n">
         <v>26</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>59.19</v>
+        <v>20.13</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F140" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>18.71600000000001</v>
+        <v>18.723</v>
       </c>
       <c r="H140" t="n">
-        <v>26.2</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>17.286</v>
       </c>
       <c r="J140" t="n">
-        <v>-923.9738346043262</v>
+        <v>-655.7052232138316</v>
       </c>
       <c r="K140" t="n">
         <v>29.799999</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>59.19</v>
+        <v>20.13</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8332,19 +8332,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F141" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>18.71600000000001</v>
+        <v>18.723</v>
       </c>
       <c r="H141" t="n">
-        <v>46.5</v>
+        <v>49.8</v>
       </c>
       <c r="I141" t="n">
         <v>17.22699999999992</v>
       </c>
       <c r="J141" t="n">
-        <v>-872.8168394700001</v>
+        <v>-411.7444803904312</v>
       </c>
       <c r="K141" t="n">
         <v>36.150002</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>18.723</v>
+        <v>18.72299999999997</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>17.22699999999992</v>
       </c>
       <c r="J142" t="n">
-        <v>-411.070321230103</v>
+        <v>-411.0703212301038</v>
       </c>
       <c r="K142" t="n">
         <v>37.52</v>
@@ -8456,7 +8456,7 @@
         <v>18.38099999999991</v>
       </c>
       <c r="J143" t="n">
-        <v>-466.5406621827839</v>
+        <v>-466.540662182784</v>
       </c>
       <c r="K143" t="n">
         <v>37.950001</v>
@@ -8568,7 +8568,7 @@
         <v>18.38099999999991</v>
       </c>
       <c r="J145" t="n">
-        <v>-487.528917907815</v>
+        <v>-487.5289179078151</v>
       </c>
       <c r="K145" t="n">
         <v>36.689999</v>
@@ -8624,7 +8624,7 @@
         <v>29.1219999999999</v>
       </c>
       <c r="J146" t="n">
-        <v>-970.3000328875969</v>
+        <v>-970.3000328875966</v>
       </c>
       <c r="K146" t="n">
         <v>34</v>
@@ -8662,7 +8662,7 @@
         <v>26.13</v>
       </c>
       <c r="D147" t="n">
-        <v>47.8</v>
+        <v>36.6</v>
       </c>
       <c r="E147" t="n">
         <v>0.26</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>395.9059303038602</v>
+        <v>2499.063272079073</v>
       </c>
       <c r="K147" t="n">
         <v>28.360001</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>377.263514658867</v>
+        <v>2562.847151963203</v>
       </c>
       <c r="K148" t="n">
         <v>27</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2477.646333919432</v>
+        <v>2479.585273949448</v>
       </c>
       <c r="K149" t="n">
         <v>25.4</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>27.92</v>
+        <v>29</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2485.907029469932</v>
+        <v>2514.680653007302</v>
       </c>
       <c r="K150" t="n">
         <v>25.2</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>27.92</v>
+        <v>29</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8892,19 +8892,19 @@
         <v>0.26</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G151" t="n">
-        <v>26.244</v>
+        <v>26.23599999999999</v>
       </c>
       <c r="H151" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>29.11199999999991</v>
+        <v>29.11499999999999</v>
       </c>
       <c r="J151" t="n">
-        <v>-1445.533093660464</v>
+        <v>953.9235811461848</v>
       </c>
       <c r="K151" t="n">
         <v>25.59999</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>27.92</v>
+        <v>29</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.27</v>
       </c>
       <c r="F152" t="n">
-        <v>31.8</v>
+        <v>49.8</v>
       </c>
       <c r="G152" t="n">
         <v>25.93000000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>29.11199999999991</v>
+        <v>29.11499999999999</v>
       </c>
       <c r="J152" t="n">
-        <v>-1386.29350728</v>
+        <v>-357.2941274977934</v>
       </c>
       <c r="K152" t="n">
         <v>24.940001</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>27.92</v>
+        <v>29</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9013,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>20.98900000000002</v>
+        <v>20.989</v>
       </c>
       <c r="J153" t="n">
-        <v>-1413.785194811889</v>
+        <v>-136.7682685652038</v>
       </c>
       <c r="K153" t="n">
         <v>25.4</v>
@@ -9069,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>20.98900000000002</v>
+        <v>20.989</v>
       </c>
       <c r="J154" t="n">
-        <v>-1516.770802173342</v>
+        <v>-822.5912796696081</v>
       </c>
       <c r="K154" t="n">
         <v>24.91</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-1038.84705314248</v>
+        <v>-360.7450536457666</v>
       </c>
       <c r="K155" t="n">
         <v>24.93</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-511.8525976543506</v>
+        <v>-2249.506700580808</v>
       </c>
       <c r="K156" t="n">
         <v>24.719999</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-1831.746657589641</v>
+        <v>-630.2203926600999</v>
       </c>
       <c r="K157" t="n">
         <v>23.49</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-2260.968686949592</v>
+        <v>-2004.388702950915</v>
       </c>
       <c r="K158" t="n">
         <v>23.190001</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>17.232</v>
       </c>
       <c r="J159" t="n">
-        <v>-2644.016169872164</v>
+        <v>-2568.2232110503</v>
       </c>
       <c r="K159" t="n">
         <v>21.129999</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9408,7 +9408,7 @@
         <v>17.232</v>
       </c>
       <c r="J160" t="n">
-        <v>-2413.942099554101</v>
+        <v>-2052.990860966707</v>
       </c>
       <c r="K160" t="n">
         <v>19.459999</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>17.232</v>
       </c>
       <c r="J161" t="n">
-        <v>-1875.844600477834</v>
+        <v>-1978.692446229356</v>
       </c>
       <c r="K161" t="n">
         <v>20.889999</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>25.12</v>
+        <v>27.44</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>17.232</v>
       </c>
       <c r="J162" t="n">
-        <v>-2212.961975641193</v>
+        <v>-1456.550654185</v>
       </c>
       <c r="K162" t="n">
         <v>24.280001</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>25.12</v>
+        <v>27.44</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>17.232</v>
+        <v>16.85699999999991</v>
       </c>
       <c r="J163" t="n">
-        <v>-1222.930292640934</v>
+        <v>-176.7209410429118</v>
       </c>
       <c r="K163" t="n">
         <v>26</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>25.12</v>
+        <v>27.44</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.27</v>
       </c>
       <c r="F164" t="n">
-        <v>15.1</v>
+        <v>26.1</v>
       </c>
       <c r="G164" t="n">
         <v>18.71600000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>34.7</v>
+        <v>23.7</v>
       </c>
       <c r="I164" t="n">
         <v>16.85699999999991</v>
       </c>
       <c r="J164" t="n">
-        <v>-890.52327877</v>
+        <v>304.2180676964043</v>
       </c>
       <c r="K164" t="n">
         <v>29.799999</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>25.12</v>
+        <v>27.44</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9676,19 +9676,19 @@
         <v>0.27</v>
       </c>
       <c r="F165" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>18.71600000000001</v>
+        <v>18.723</v>
       </c>
       <c r="H165" t="n">
-        <v>46.3</v>
+        <v>49.8</v>
       </c>
       <c r="I165" t="n">
         <v>16.85699999999991</v>
       </c>
       <c r="J165" t="n">
-        <v>-858.5996474564073</v>
+        <v>-438.0916593977749</v>
       </c>
       <c r="K165" t="n">
         <v>36.150002</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>17.64</v>
+        <v>18.82</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>16.85699999999991</v>
       </c>
       <c r="J166" t="n">
-        <v>-454.5749397005485</v>
+        <v>-427.362951728729</v>
       </c>
       <c r="K166" t="n">
         <v>37.52</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>17.64</v>
+        <v>18.82</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>17.64</v>
+        <v>18.82</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>17.64</v>
+        <v>18.82</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
